--- a/Fit_07714532B-1_1h_atDifferentWindowing.xlsx
+++ b/Fit_07714532B-1_1h_atDifferentWindowing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Documents\Arduino\ArduinoModbusThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C33EB71-840E-453A-B497-FF64F7C132C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E94136-3F13-4CCD-9E7A-1D936BF672E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6930" yWindow="-16297" windowWidth="28995" windowHeight="16395" firstSheet="1" activeTab="1" xr2:uid="{6C65C334-5E95-49B0-8D09-28CD8579ABD7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="687" firstSheet="1" activeTab="1" xr2:uid="{6C65C334-5E95-49B0-8D09-28CD8579ABD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Fit result (2)" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="39">
   <si>
     <t>coeff</t>
   </si>
@@ -139,12 +139,33 @@
   <si>
     <t>Trust-Region</t>
   </si>
+  <si>
+    <t>07714532B-1</t>
+  </si>
+  <si>
+    <t>07714532B-2</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>07714532C-1</t>
+  </si>
+  <si>
+    <t>07714532C-2</t>
+  </si>
+  <si>
+    <t>EQ</t>
+  </si>
+  <si>
+    <t>f0 + f1*exp(-(t-0.4)/τ1) + f2*exp(-(t-0.4)/τ2) + f3*exp(-(t-0.4)/τ3) + f4*exp(-(t-0.4)/τ4) + f5*exp(-(t-0.4)/τ5) + f6*exp(-(t-0.4)/τ6)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,8 +208,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,8 +228,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -225,11 +276,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -239,12 +301,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -259,9 +315,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -271,8 +324,42 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1303,7 +1390,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>f_0 vs finestra</a:t>
+              <a:t>f_4</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> vs window</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1346,6 +1437,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>B-1</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1372,7 +1466,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Fit result'!$D$4:$H$4</c:f>
+              <c:f>'Fit result'!$D$5:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1396,24 +1490,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Fit result'!$D$5:$H$5</c:f>
+              <c:f>('Fit result'!$D$10,'Fit result'!$E$10,'Fit result'!$F$10,'Fit result'!$G$11,'Fit result'!$H$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>15.99</c:v>
+                  <c:v>0.91159999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.63</c:v>
+                  <c:v>0.95030000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.32</c:v>
+                  <c:v>1.0049999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.86</c:v>
+                  <c:v>1.113</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.69</c:v>
+                  <c:v>1.7669999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1421,7 +1515,262 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5BDC-43D8-A543-65436E23A939}"/>
+              <c16:uniqueId val="{00000000-1CF4-4407-B522-33B933F6AA58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>B-2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Fit result'!$N$5:$R$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Fit result'!$N$10,'Fit result'!$O$10,'Fit result'!$P$10,'Fit result'!$Q$11,'Fit result'!$R$12)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.79720000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83289999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8669</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0820000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1CF4-4407-B522-33B933F6AA58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>C-1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Fit result'!$D$23:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Fit result'!$D$28,'Fit result'!$E$28,'Fit result'!$F$28,'Fit result'!$G$29,'Fit result'!$H$30)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.54020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47070000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50160000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53790000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1CF4-4407-B522-33B933F6AA58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>C-2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Fit result'!$N$23:$R$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Fit result'!$N$28,'Fit result'!$O$28,'Fit result'!$P$28,'Fit result'!$Q$29,'Fit result'!$R$30)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.63339999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65680000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80389999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1CF4-4407-B522-33B933F6AA58}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1433,11 +1782,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="180855952"/>
-        <c:axId val="174374992"/>
+        <c:axId val="1305113488"/>
+        <c:axId val="429035824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="180855952"/>
+        <c:axId val="1305113488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1494,12 +1843,12 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174374992"/>
+        <c:crossAx val="429035824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="174374992"/>
+        <c:axId val="429035824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1556,7 +1905,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="180855952"/>
+        <c:crossAx val="1305113488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1568,6 +1917,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1646,8 +2026,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>f_high vs finestra</a:t>
+              <a:rPr lang="it-IT"/>
+              <a:t>f_0 vs window</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1691,7 +2071,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>f_high</c:v>
+            <c:v>B-1</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1719,7 +2099,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Fit result'!$D$4:$H$4</c:f>
+              <c:f>'Fit result'!$D$5:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1743,24 +2123,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Fit result'!$D$9,'Fit result'!$E$9,'Fit result'!$F$9,'Fit result'!$G$10,'Fit result'!$H$11)</c:f>
+              <c:f>'Fit result'!$D$6:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.91159999999999997</c:v>
+                  <c:v>15.99</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95030000000000003</c:v>
+                  <c:v>15.63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0069999999999999</c:v>
+                  <c:v>15.35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.113</c:v>
+                  <c:v>14.86</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7190000000000001</c:v>
+                  <c:v>13.64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1768,7 +2148,262 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-FAAB-4209-B3EB-E46C9341B2D9}"/>
+              <c16:uniqueId val="{00000000-4AED-4786-9C79-0AA11696A024}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>B-2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Fit result'!$N$5:$R$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Fit result'!$N$6:$R$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>14.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4AED-4786-9C79-0AA11696A024}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>C-1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Fit result'!$D$23:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Fit result'!$D$24:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.4139999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5069999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3630000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1509999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9790000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4AED-4786-9C79-0AA11696A024}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>C-2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Fit result'!$N$23:$R$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Fit result'!$N$24:$R$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.4760000000000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2390000000000008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.907</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6289999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4AED-4786-9C79-0AA11696A024}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1780,11 +2415,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="319459280"/>
-        <c:axId val="330835664"/>
+        <c:axId val="199931472"/>
+        <c:axId val="1148715088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="319459280"/>
+        <c:axId val="199931472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1841,12 +2476,12 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330835664"/>
+        <c:crossAx val="1148715088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="330835664"/>
+        <c:axId val="1148715088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1903,7 +2538,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319459280"/>
+        <c:crossAx val="199931472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1915,6 +2550,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -4268,23 +4934,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>412434</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>127633</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>598648</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>73341</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Grafico 2">
+        <xdr:cNvPr id="7" name="Grafico 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15E40E2F-A33C-5866-9B3E-D19D600BE02C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FCBD098-FCA4-CA51-B1C9-004EA3AF0E6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4304,23 +4970,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>14765</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>160973</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>2856</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>316707</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>199073</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Grafico 4">
+        <xdr:cNvPr id="2" name="Grafico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F3C383-C1EA-B0ED-2B75-9A05F7F20AFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF4D645F-7018-73A2-16D9-BFE222A9A1BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4675,344 +5341,344 @@
     <row r="3" spans="2:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>2</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>5</v>
       </c>
-      <c r="F4" s="6">
-        <v>10</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="F4" s="5">
+        <v>10</v>
+      </c>
+      <c r="G4" s="5">
         <v>30</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>15.99</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <v>15.63</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <v>15.32</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="6">
         <v>14.86</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="6">
         <v>13.64</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>0.16220000000000001</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>0.54</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <v>0.55030000000000001</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="6">
         <v>0.47870000000000001</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="6">
         <v>0.41589999999999999</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>0.45319999999999999</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>0.37319999999999998</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <v>0.50890000000000002</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="6">
         <v>0.56620000000000004</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="6">
         <v>0.5494</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B8" s="5"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>0.51380000000000003</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>0.53859999999999997</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="6">
         <v>0.56159999999999999</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="6">
         <v>0.51419999999999999</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="6">
         <v>0.49209999999999998</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B9" s="5"/>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>0.91159999999999997</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>0.95030000000000003</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="6">
         <v>1.0069999999999999</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="6">
         <v>0.48459999999999998</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="6">
         <v>0.46639999999999998</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B10" s="5"/>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="8">
+      <c r="D10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="6">
         <v>1.113</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="6">
         <v>0.69910000000000005</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B11" s="5"/>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="8">
+      <c r="D11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="6">
         <v>1.7609999999999999</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B12" s="5"/>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>0.29339999999999999</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="6">
         <v>4.8739999999999997</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="6">
         <v>6.6420000000000003</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="6">
         <v>1.0629999999999999</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="6">
         <v>0.86460000000000004</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B13" s="5"/>
-      <c r="C13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="8">
+      <c r="B13" s="19"/>
+      <c r="C13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="6">
         <v>1.958</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="6">
         <v>0.74739999999999995</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="6">
         <v>1.18</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="6">
         <v>7.5380000000000003</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="6">
         <v>5.8029999999999999</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="6">
         <v>9.782</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="6">
         <v>27.03</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="6">
         <v>51.7</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="6">
         <v>42.19</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="6">
         <v>31.07</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B15" s="5"/>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="6">
         <v>74.83</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="6">
         <v>209.4</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="6">
         <v>432.4</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="6">
         <v>189.9</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="6">
         <v>132.30000000000001</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B16" s="5"/>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="8">
+      <c r="D16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="6">
         <v>1358</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="6">
         <v>701</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B17" s="5"/>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="19"/>
+      <c r="C17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="8">
+      <c r="D17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="6">
         <v>9549</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5024,19 +5690,19 @@
       <c r="C19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="6">
         <v>1</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="6">
         <v>1</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="6">
         <v>0.99990000000000001</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="6">
         <v>1</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="6">
         <v>1</v>
       </c>
     </row>
@@ -5052,394 +5718,1471 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7549300-F135-4A90-B6B7-AFC0BE521B4F}">
-  <dimension ref="B3:I19"/>
+  <dimension ref="B2:S38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="8" width="10.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4.33203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="4.33203125" customWidth="1"/>
+    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="7" t="s">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+    </row>
+    <row r="4" spans="2:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="6">
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="L4" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="21"/>
+      <c r="N4" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="14">
         <v>2</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E5" s="14">
         <v>5</v>
       </c>
-      <c r="F4" s="6">
-        <v>10</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="F5" s="14">
+        <v>10</v>
+      </c>
+      <c r="G5" s="14">
         <v>30</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H5" s="14">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B5" s="5" t="s">
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="14">
+        <v>2</v>
+      </c>
+      <c r="O5" s="14">
+        <v>5</v>
+      </c>
+      <c r="P5" s="14">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>30</v>
+      </c>
+      <c r="R5" s="14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D6" s="9">
         <v>15.99</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E6" s="9">
         <v>15.63</v>
       </c>
-      <c r="F5" s="8">
-        <v>15.32</v>
-      </c>
-      <c r="G5" s="8">
+      <c r="F6" s="9">
+        <v>15.35</v>
+      </c>
+      <c r="G6" s="9">
         <v>14.86</v>
       </c>
-      <c r="H5" s="8">
-        <v>13.69</v>
-      </c>
-      <c r="I5" s="8" t="s">
+      <c r="H6" s="9">
+        <v>13.64</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6" t="s">
+      <c r="L6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="9">
+        <v>14.92</v>
+      </c>
+      <c r="O6" s="9">
+        <v>14.67</v>
+      </c>
+      <c r="P6" s="9">
+        <v>14.39</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>13.79</v>
+      </c>
+      <c r="R6" s="9">
+        <v>13.68</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B7" s="23"/>
+      <c r="C7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D7" s="9">
         <v>0.16220000000000001</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E7" s="9">
+        <v>0.37330000000000002</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.51060000000000005</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.47849999999999998</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.41610000000000003</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="23"/>
+      <c r="M7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0.18640000000000001</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0.31840000000000002</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0.46529999999999999</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0.21410000000000001</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B8" s="23"/>
+      <c r="C8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.45319999999999999</v>
+      </c>
+      <c r="E8" s="9">
         <v>0.54</v>
       </c>
-      <c r="F6" s="8">
-        <v>0.55030000000000001</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0.47870000000000001</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0.41460000000000002</v>
-      </c>
-      <c r="I6" s="8" t="s">
+      <c r="F8" s="9">
+        <v>0.57609999999999995</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.56620000000000004</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.54949999999999999</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6" t="s">
+      <c r="L8" s="23"/>
+      <c r="M8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="8">
-        <v>0.45319999999999999</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0.37319999999999998</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0.50890000000000002</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0.56620000000000004</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="I7" s="8" t="s">
+      <c r="N8" s="9">
+        <v>0.41289999999999999</v>
+      </c>
+      <c r="O8" s="9">
+        <v>0.47239999999999999</v>
+      </c>
+      <c r="P8" s="9">
+        <v>0.52139999999999997</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0.52059999999999995</v>
+      </c>
+      <c r="R8" s="9">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="S8" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B8" s="5"/>
-      <c r="C8" s="6" t="s">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B9" s="23"/>
+      <c r="C9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D9" s="9">
         <v>0.51380000000000003</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E9" s="9">
         <v>0.53859999999999997</v>
       </c>
-      <c r="F8" s="8">
-        <v>0.56159999999999999</v>
-      </c>
-      <c r="G8" s="8">
+      <c r="F9" s="9">
+        <v>0.57569999999999999</v>
+      </c>
+      <c r="G9" s="9">
         <v>0.51419999999999999</v>
       </c>
-      <c r="H8" s="8">
-        <v>0.49170000000000003</v>
-      </c>
-      <c r="I8" s="8" t="s">
+      <c r="H9" s="9">
+        <v>0.49220000000000003</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B9" s="5"/>
-      <c r="C9" s="6" t="s">
+      <c r="L9" s="23"/>
+      <c r="M9" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0.45429999999999998</v>
+      </c>
+      <c r="O9" s="15">
+        <v>0.46710000000000002</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0.50129999999999997</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0.47149999999999997</v>
+      </c>
+      <c r="R9" s="9">
+        <v>0.42849999999999999</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B10" s="23"/>
+      <c r="C10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D10" s="16">
         <v>0.91159999999999997</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E10" s="16">
         <v>0.95030000000000003</v>
       </c>
-      <c r="F9" s="15">
-        <v>1.0069999999999999</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0.48459999999999998</v>
-      </c>
-      <c r="H9" s="8">
-        <v>0.46679999999999999</v>
-      </c>
-      <c r="I9" s="8" t="s">
+      <c r="F10" s="16">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.48470000000000002</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.46639999999999998</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B10" s="5"/>
-      <c r="C10" s="6" t="s">
+      <c r="L10" s="23"/>
+      <c r="M10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="16">
+        <v>0.79720000000000002</v>
+      </c>
+      <c r="O10" s="16">
+        <v>0.83289999999999997</v>
+      </c>
+      <c r="P10" s="16">
+        <v>0.8669</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0.48270000000000002</v>
+      </c>
+      <c r="R10" s="9">
+        <v>0.43890000000000001</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B11" s="23"/>
+      <c r="C11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="15">
+      <c r="D11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="16">
         <v>1.113</v>
       </c>
-      <c r="H10" s="8">
-        <v>0.69610000000000005</v>
-      </c>
-      <c r="I10" s="8" t="s">
+      <c r="H11" s="9">
+        <v>0.69940000000000002</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B11" s="5"/>
-      <c r="C11" s="6" t="s">
+      <c r="L11" s="23"/>
+      <c r="M11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>1.008</v>
+      </c>
+      <c r="R11" s="9">
+        <v>0.49540000000000001</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B12" s="23"/>
+      <c r="C12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="15">
-        <v>1.7190000000000001</v>
-      </c>
-      <c r="I11" s="8" t="s">
+      <c r="D12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="16">
+        <v>1.7669999999999999</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B12" s="5"/>
-      <c r="C12" s="6" t="s">
+      <c r="L12" s="23"/>
+      <c r="M12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R12" s="16">
+        <v>1.0820000000000001</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B13" s="23"/>
+      <c r="C13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D13" s="9">
         <v>0.29339999999999999</v>
       </c>
-      <c r="E12" s="8">
-        <v>4.8739999999999997</v>
-      </c>
-      <c r="F12" s="8">
-        <v>6.6420000000000003</v>
-      </c>
-      <c r="G12" s="8">
+      <c r="E13" s="9">
+        <v>0.74760000000000004</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1.18</v>
+      </c>
+      <c r="G13" s="9">
         <v>1.0629999999999999</v>
       </c>
-      <c r="H12" s="8">
-        <v>0.86080000000000001</v>
-      </c>
-      <c r="I12" s="8" t="s">
+      <c r="H13" s="9">
+        <v>0.86519999999999997</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B13" s="5"/>
-      <c r="C13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="8">
+      <c r="L13" s="23"/>
+      <c r="M13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" s="9">
+        <v>0.3679</v>
+      </c>
+      <c r="O13" s="9">
+        <v>0.68089999999999995</v>
+      </c>
+      <c r="P13" s="9">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>1.202</v>
+      </c>
+      <c r="R13" s="9">
+        <v>0.42530000000000001</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B14" s="23"/>
+      <c r="C14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="9">
         <v>1.958</v>
       </c>
-      <c r="E13" s="8">
-        <v>0.74739999999999995</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1.18</v>
-      </c>
-      <c r="G13" s="8">
-        <v>7.5380000000000003</v>
-      </c>
-      <c r="H13" s="8">
-        <v>5.7709999999999999</v>
-      </c>
-      <c r="I13" s="8" t="s">
+      <c r="E14" s="9">
+        <v>4.875</v>
+      </c>
+      <c r="F14" s="9">
+        <v>8.641</v>
+      </c>
+      <c r="G14" s="9">
+        <v>7.532</v>
+      </c>
+      <c r="H14" s="9">
+        <v>5.8079999999999998</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6" t="s">
+      <c r="L14" s="23"/>
+      <c r="M14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="9">
+        <v>2.3319999999999999</v>
+      </c>
+      <c r="O14" s="9">
+        <v>4.492</v>
+      </c>
+      <c r="P14" s="9">
+        <v>8.9830000000000005</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>9.1150000000000002</v>
+      </c>
+      <c r="R14" s="9">
+        <v>2.6930000000000001</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B15" s="23"/>
+      <c r="C15" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D15" s="9">
         <v>9.782</v>
       </c>
-      <c r="E14" s="8">
-        <v>27.03</v>
-      </c>
-      <c r="F14" s="8">
+      <c r="E15" s="9">
+        <v>27.04</v>
+      </c>
+      <c r="F15" s="9">
         <v>51.7</v>
       </c>
-      <c r="G14" s="8">
-        <v>42.19</v>
-      </c>
-      <c r="H14" s="8">
-        <v>30.86</v>
-      </c>
-      <c r="I14" s="8" t="s">
+      <c r="G15" s="9">
+        <v>42.16</v>
+      </c>
+      <c r="H15" s="9">
+        <v>31.09</v>
+      </c>
+      <c r="I15" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B15" s="5"/>
-      <c r="C15" s="6" t="s">
+      <c r="L15" s="23"/>
+      <c r="M15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="9">
+        <v>11.55</v>
+      </c>
+      <c r="O15" s="9">
+        <v>24</v>
+      </c>
+      <c r="P15" s="9">
+        <v>54.82</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>53.8</v>
+      </c>
+      <c r="R15" s="9">
+        <v>13.09</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B16" s="23"/>
+      <c r="C16" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D16" s="16">
         <v>74.83</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E16" s="16">
         <v>209.4</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F16" s="16">
         <v>432.4</v>
       </c>
-      <c r="G15" s="8">
-        <v>189.9</v>
-      </c>
-      <c r="H15" s="8">
-        <v>131.4</v>
-      </c>
-      <c r="I15" s="8" t="s">
+      <c r="G16" s="9">
+        <v>189.8</v>
+      </c>
+      <c r="H16" s="9">
+        <v>132.4</v>
+      </c>
+      <c r="I16" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B16" s="5"/>
-      <c r="C16" s="6" t="s">
+      <c r="L16" s="23"/>
+      <c r="M16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" s="16">
+        <v>86.08</v>
+      </c>
+      <c r="O16" s="16">
+        <v>186.5</v>
+      </c>
+      <c r="P16" s="16">
+        <v>445.4</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>272.2</v>
+      </c>
+      <c r="R16" s="9">
+        <v>61.72</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B17" s="23"/>
+      <c r="C17" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="15">
-        <v>1358</v>
-      </c>
-      <c r="H16" s="8">
-        <v>695.7</v>
-      </c>
-      <c r="I16" s="8" t="s">
+      <c r="D17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="16">
+        <v>1357</v>
+      </c>
+      <c r="H17" s="9">
+        <v>701.7</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B17" s="5"/>
-      <c r="C17" s="6" t="s">
+      <c r="L17" s="23"/>
+      <c r="M17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="16">
+        <v>2197</v>
+      </c>
+      <c r="R17" s="9">
+        <v>300.5</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B18" s="23"/>
+      <c r="C18" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="15">
-        <v>9178</v>
-      </c>
-      <c r="I17" s="8" t="s">
+      <c r="D18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="16">
+        <v>9599</v>
+      </c>
+      <c r="I18" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B19" s="3"/>
-      <c r="C19" s="4" t="s">
+      <c r="L18" s="23"/>
+      <c r="M18" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R18" s="16">
+        <v>2699</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B19" s="17"/>
+      <c r="L19" s="17"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B20" s="15"/>
+      <c r="C20" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D20" s="9">
         <v>1</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E20" s="9">
         <v>1</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F20" s="9">
         <v>0.99990000000000001</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G20" s="9">
         <v>1</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H20" s="9">
         <v>1</v>
       </c>
+      <c r="L20" s="15"/>
+      <c r="M20" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" s="9">
+        <v>1</v>
+      </c>
+      <c r="O20" s="9">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="P20" s="9">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>1</v>
+      </c>
+      <c r="R20" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="L22" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22" s="21"/>
+      <c r="N22" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="14">
+        <v>2</v>
+      </c>
+      <c r="E23" s="14">
+        <v>5</v>
+      </c>
+      <c r="F23" s="14">
+        <v>10</v>
+      </c>
+      <c r="G23" s="14">
+        <v>30</v>
+      </c>
+      <c r="H23" s="14">
+        <v>60</v>
+      </c>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="14">
+        <v>2</v>
+      </c>
+      <c r="O23" s="14">
+        <v>5</v>
+      </c>
+      <c r="P23" s="14">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="14">
+        <v>30</v>
+      </c>
+      <c r="R23" s="14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B24" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="9">
+        <v>5.4139999999999997</v>
+      </c>
+      <c r="E24" s="9">
+        <v>5.5069999999999997</v>
+      </c>
+      <c r="F24" s="9">
+        <v>5.3630000000000004</v>
+      </c>
+      <c r="G24" s="9">
+        <v>5.1509999999999998</v>
+      </c>
+      <c r="H24" s="9">
+        <v>4.9790000000000001</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N24" s="9">
+        <v>9.4760000000000009</v>
+      </c>
+      <c r="O24" s="9">
+        <v>9.41</v>
+      </c>
+      <c r="P24" s="9">
+        <v>9.2390000000000008</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>8.907</v>
+      </c>
+      <c r="R24" s="9">
+        <v>8.6289999999999996</v>
+      </c>
+      <c r="S24" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B25" s="23"/>
+      <c r="C25" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0.1017</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0.1196</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0.1754</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0.13139999999999999</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="23"/>
+      <c r="M25" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N25" s="9">
+        <v>0.1454</v>
+      </c>
+      <c r="O25" s="9">
+        <v>0.1933</v>
+      </c>
+      <c r="P25" s="9">
+        <v>0.2475</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>0.2286</v>
+      </c>
+      <c r="R25" s="9">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="S25" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B26" s="23"/>
+      <c r="C26" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0.1762</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0.1865</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0.2162</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0.2019</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0.19209999999999999</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="23"/>
+      <c r="M26" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" s="9">
+        <v>0.25640000000000002</v>
+      </c>
+      <c r="O26" s="9">
+        <v>0.28770000000000001</v>
+      </c>
+      <c r="P26" s="9">
+        <v>0.3236</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>0.31069999999999998</v>
+      </c>
+      <c r="R26" s="9">
+        <v>0.2984</v>
+      </c>
+      <c r="S26" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B27" s="23"/>
+      <c r="C27" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0.23</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0.2152</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0.22770000000000001</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0.20619999999999999</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0.1976</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="23"/>
+      <c r="M27" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="9">
+        <v>0.32119999999999999</v>
+      </c>
+      <c r="O27" s="9">
+        <v>0.31879999999999997</v>
+      </c>
+      <c r="P27" s="9">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>0.3135</v>
+      </c>
+      <c r="R27" s="9">
+        <v>0.29310000000000003</v>
+      </c>
+      <c r="S27" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B28" s="23"/>
+      <c r="C28" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="16">
+        <v>0.54020000000000001</v>
+      </c>
+      <c r="E28" s="16">
+        <v>0.4325</v>
+      </c>
+      <c r="F28" s="16">
+        <v>0.47070000000000001</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0.24840000000000001</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0.18729999999999999</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="23"/>
+      <c r="M28" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N28" s="16">
+        <v>0.63339999999999996</v>
+      </c>
+      <c r="O28" s="16">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="P28" s="16">
+        <v>0.65680000000000005</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>0.34649999999999997</v>
+      </c>
+      <c r="R28" s="9">
+        <v>0.27289999999999998</v>
+      </c>
+      <c r="S28" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B29" s="23"/>
+      <c r="C29" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="16">
+        <v>0.50160000000000005</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0.2349</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="23"/>
+      <c r="M29" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q29" s="16">
+        <v>0.71760000000000002</v>
+      </c>
+      <c r="R29" s="9">
+        <v>0.31850000000000001</v>
+      </c>
+      <c r="S29" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B30" s="23"/>
+      <c r="C30" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="16">
+        <v>0.53790000000000004</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="23"/>
+      <c r="M30" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R30" s="16">
+        <v>0.80389999999999995</v>
+      </c>
+      <c r="S30" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B31" s="23"/>
+      <c r="C31" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="9">
+        <v>0.57630000000000003</v>
+      </c>
+      <c r="E31" s="9">
+        <v>0.7056</v>
+      </c>
+      <c r="F31" s="9">
+        <v>1.272</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0.96750000000000003</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0.8034</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" s="23"/>
+      <c r="M31" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="N31" s="9">
+        <v>0.56769999999999998</v>
+      </c>
+      <c r="O31" s="9">
+        <v>0.82130000000000003</v>
+      </c>
+      <c r="P31" s="9">
+        <v>1.204</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>1.056</v>
+      </c>
+      <c r="R31" s="9">
+        <v>0.93320000000000003</v>
+      </c>
+      <c r="S31" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B32" s="23"/>
+      <c r="C32" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="9">
+        <v>3.8119999999999998</v>
+      </c>
+      <c r="E32" s="9">
+        <v>4.8369999999999997</v>
+      </c>
+      <c r="F32" s="9">
+        <v>9.8629999999999995</v>
+      </c>
+      <c r="G32" s="9">
+        <v>7.0529999999999999</v>
+      </c>
+      <c r="H32" s="9">
+        <v>5.63</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" s="23"/>
+      <c r="M32" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="N32" s="9">
+        <v>3.6960000000000002</v>
+      </c>
+      <c r="O32" s="9">
+        <v>5.6959999999999997</v>
+      </c>
+      <c r="P32" s="9">
+        <v>9.1110000000000007</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>7.7439999999999998</v>
+      </c>
+      <c r="R32" s="9">
+        <v>6.6429999999999998</v>
+      </c>
+      <c r="S32" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B33" s="23"/>
+      <c r="C33" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="9">
+        <v>21.04</v>
+      </c>
+      <c r="E33" s="9">
+        <v>25.77</v>
+      </c>
+      <c r="F33" s="9">
+        <v>55.96</v>
+      </c>
+      <c r="G33" s="9">
+        <v>37.15</v>
+      </c>
+      <c r="H33" s="9">
+        <v>28.72</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L33" s="23"/>
+      <c r="M33" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N33" s="9">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="O33" s="9">
+        <v>29.25</v>
+      </c>
+      <c r="P33" s="9">
+        <v>52.22</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>40.83</v>
+      </c>
+      <c r="R33" s="9">
+        <v>33.24</v>
+      </c>
+      <c r="S33" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B34" s="23"/>
+      <c r="C34" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="16">
+        <v>252.7</v>
+      </c>
+      <c r="E34" s="16">
+        <v>209.4</v>
+      </c>
+      <c r="F34" s="16">
+        <v>459.9</v>
+      </c>
+      <c r="G34" s="9">
+        <v>190.7</v>
+      </c>
+      <c r="H34" s="9">
+        <v>125.1</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34" s="23"/>
+      <c r="M34" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N34" s="16">
+        <v>154.80000000000001</v>
+      </c>
+      <c r="O34" s="16">
+        <v>215</v>
+      </c>
+      <c r="P34" s="16">
+        <v>421.2</v>
+      </c>
+      <c r="Q34" s="9">
+        <v>190.4</v>
+      </c>
+      <c r="R34" s="9">
+        <v>130.80000000000001</v>
+      </c>
+      <c r="S34" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B35" s="23"/>
+      <c r="C35" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="16">
+        <v>1428</v>
+      </c>
+      <c r="H35" s="9">
+        <v>459.4</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35" s="23"/>
+      <c r="M35" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O35" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P35" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q35" s="16">
+        <v>1441</v>
+      </c>
+      <c r="R35" s="9">
+        <v>471.5</v>
+      </c>
+      <c r="S35" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B36" s="23"/>
+      <c r="C36" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="16">
+        <v>3245</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36" s="23"/>
+      <c r="M36" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O36" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P36" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q36" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R36" s="16">
+        <v>3423</v>
+      </c>
+      <c r="S36" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B37" s="17"/>
+      <c r="L37" s="17"/>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B38" s="15"/>
+      <c r="C38" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="9">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E38" s="9">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F38" s="9">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="G38" s="9">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H38" s="9">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="L38" s="15"/>
+      <c r="M38" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N38" s="9">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="O38" s="9">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="P38" s="9">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="Q38" s="9">
+        <v>1</v>
+      </c>
+      <c r="R38" s="9">
+        <v>0.99990000000000001</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="B5:B17"/>
+  <mergeCells count="13">
+    <mergeCell ref="C2:Q2"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="B24:B36"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N22:R22"/>
+    <mergeCell ref="L24:L36"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="B6:B18"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="L6:L18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5449,10 +7192,2054 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF5840B-D32E-41FC-AA19-28810F7A8260}">
-  <dimension ref="B4:H17"/>
+  <dimension ref="B3:R33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:18" ht="21" x14ac:dyDescent="0.4">
+      <c r="B3" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="K3" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="9">
+        <v>2</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I5" s="9">
+        <v>80</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R5" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="11">
+        <v>1E-8</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I6" s="9">
+        <v>10</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="11">
+        <v>1E-8</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R6" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I7" s="9">
+        <v>10</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R7" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="11">
+        <v>10000</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I8" s="9">
+        <v>10</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="11">
+        <v>10000</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R8" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="11">
+        <v>10000</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I9" s="9">
+        <v>10</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="11">
+        <v>10000</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R9" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I12" s="9">
+        <v>10</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R12" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="I13" s="9">
+        <v>10</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="R13" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="9">
+        <v>10</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="I14" s="9">
+        <v>100</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="R14" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="9">
+        <v>100</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="I15" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" s="9">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="R15" s="9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="21" x14ac:dyDescent="0.4">
+      <c r="B19" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="K19" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="9">
+        <v>2</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I21" s="9">
+        <v>80</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P21" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R21" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="11">
+        <v>1E-8</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I22" s="9">
+        <v>10</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="11">
+        <v>1E-8</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R22" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I23" s="9">
+        <v>10</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="P23" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R23" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="11">
+        <v>10000</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I24" s="9">
+        <v>10</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="11">
+        <v>10000</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R24" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="11">
+        <v>10000</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I25" s="9">
+        <v>10</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="11">
+        <v>10000</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P25" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R25" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" s="7"/>
+      <c r="M26" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="7"/>
+      <c r="M27" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I28" s="9">
+        <v>10</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="P28" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R28" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="9">
+        <v>1</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="I29" s="9">
+        <v>10</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="R29" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="9">
+        <v>10</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="I30" s="9">
+        <v>100</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P30" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="R30" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F31" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="9">
+        <v>100</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="I31" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O31" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P31" s="9">
+        <v>100</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="R31" s="9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R32" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F33" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R33" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="K3:R3"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="K19:R19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70645C31-0F36-475E-BD6C-E8ADF4E89235}">
+  <dimension ref="B3:R33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:18" ht="21" x14ac:dyDescent="0.4">
+      <c r="B3" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="K3" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="9">
+        <v>2</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I5" s="9">
+        <v>80</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R5" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="11">
+        <v>1E-8</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I6" s="9">
+        <v>10</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="11">
+        <v>1E-8</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R6" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I7" s="9">
+        <v>10</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R7" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="11">
+        <v>10000</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I8" s="9">
+        <v>10</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="11">
+        <v>10000</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R8" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="11">
+        <v>10000</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I9" s="9">
+        <v>10</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="11">
+        <v>10000</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R9" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I12" s="9">
+        <v>10</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R12" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="I13" s="9">
+        <v>10</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="R13" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="9">
+        <v>10</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="I14" s="9">
+        <v>100</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="R14" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="9">
+        <v>100</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="I15" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" s="9">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="R15" s="9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="21" x14ac:dyDescent="0.4">
+      <c r="B19" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="K19" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="9">
+        <v>2</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I21" s="9">
+        <v>80</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P21" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R21" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="11">
+        <v>1E-8</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I22" s="9">
+        <v>10</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="11">
+        <v>1E-8</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R22" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I23" s="9">
+        <v>10</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="P23" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R23" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="11">
+        <v>10000</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I24" s="9">
+        <v>10</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="11">
+        <v>10000</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R24" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="11">
+        <v>10000</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I25" s="9">
+        <v>10</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="11">
+        <v>10000</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P25" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R25" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" s="7"/>
+      <c r="M26" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="7"/>
+      <c r="M27" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I28" s="9">
+        <v>10</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="P28" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R28" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="9">
+        <v>1</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="I29" s="9">
+        <v>10</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="R29" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="9">
+        <v>10</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="I30" s="9">
+        <v>100</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P30" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="R30" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F31" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="9">
+        <v>100</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="I31" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O31" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P31" s="9">
+        <v>100</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="R31" s="9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R32" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F33" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R33" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="K3:R3"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="K19:R19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4FB191-5DEE-4380-877B-59EA2D2A3CCE}">
+  <dimension ref="B3:R33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5460,229 +9247,1023 @@
     <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="1.44140625" customWidth="1"/>
     <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+    <row r="3" spans="2:18" ht="21" x14ac:dyDescent="0.4">
+      <c r="B3" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="K3" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
+      <c r="K4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H5" s="12">
+      <c r="G5" s="9">
+        <v>2</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I5" s="9">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
+      <c r="K5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R5" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="14">
+      <c r="C6" s="7"/>
+      <c r="D6" s="11">
         <v>1E-8</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H6" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
+      <c r="G6" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I6" s="9">
+        <v>10</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="11">
+        <v>1E-8</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R6" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="14">
+      <c r="C7" s="7"/>
+      <c r="D7" s="11">
         <v>0.1</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H7" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
+      <c r="G7" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I7" s="9">
+        <v>10</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R7" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="14">
+      <c r="C8" s="7"/>
+      <c r="D8" s="11">
         <v>10000</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H8" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
+      <c r="G8" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I8" s="9">
+        <v>10</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="11">
+        <v>10000</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R8" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="14">
+      <c r="C9" s="7"/>
+      <c r="D9" s="11">
         <v>10000</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H9" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
+      <c r="G9" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I9" s="9">
+        <v>10</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="11">
+        <v>10000</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R9" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="14">
+      <c r="C10" s="7"/>
+      <c r="D10" s="11">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
+      <c r="G10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="14">
+      <c r="C11" s="7"/>
+      <c r="D11" s="11">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F12" s="11" t="s">
+      <c r="G11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H12" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="12">
+      <c r="G12" s="9">
         <v>0.1</v>
       </c>
-      <c r="H13" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F14" s="11" t="s">
+      <c r="H12" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I12" s="9">
+        <v>10</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R12" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="I13" s="9">
+        <v>10</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="R13" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="9">
+        <v>10</v>
+      </c>
+      <c r="H14" s="9">
         <v>0.1</v>
       </c>
-      <c r="H14" s="12">
+      <c r="I14" s="9">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F15" s="11" t="s">
+      <c r="O14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="R14" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="9">
+        <v>100</v>
+      </c>
+      <c r="H15" s="9">
         <v>0.1</v>
       </c>
-      <c r="H15" s="12">
+      <c r="I15" s="9">
         <v>1000</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F16" s="11" t="s">
+      <c r="O15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" s="9">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="R15" s="9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F17" s="11" t="s">
+      <c r="G16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="12" t="s">
+      <c r="G17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="21" x14ac:dyDescent="0.4">
+      <c r="B19" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="K19" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="9">
+        <v>2</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I21" s="9">
+        <v>80</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P21" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R21" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="11">
+        <v>1E-8</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I22" s="9">
+        <v>10</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="11">
+        <v>1E-8</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R22" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I23" s="9">
+        <v>10</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="P23" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R23" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="11">
+        <v>10000</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I24" s="9">
+        <v>10</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="11">
+        <v>10000</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R24" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="11">
+        <v>10000</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I25" s="9">
+        <v>10</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="11">
+        <v>10000</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P25" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R25" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" s="7"/>
+      <c r="M26" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="7"/>
+      <c r="M27" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I28" s="9">
+        <v>10</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="P28" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R28" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="9">
+        <v>1</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="I29" s="9">
+        <v>10</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="R29" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="9">
+        <v>10</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="I30" s="9">
+        <v>100</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P30" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="R30" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F31" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="9">
+        <v>100</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="I31" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O31" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P31" s="9">
+        <v>100</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="R31" s="9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R32" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F33" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R33" s="9" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="K3:R3"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="K19:R19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70645C31-0F36-475E-BD6C-E8ADF4E89235}">
-  <dimension ref="B4:H17"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43AB85F6-4ACB-404D-BFE0-0D89FAEC340D}">
+  <dimension ref="B3:R33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5690,229 +10271,1023 @@
     <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="1.44140625" customWidth="1"/>
     <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+    <row r="3" spans="2:18" ht="21" x14ac:dyDescent="0.4">
+      <c r="B3" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="K3" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
+      <c r="K4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H5" s="12">
+      <c r="G5" s="9">
+        <v>2</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I5" s="9">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
+      <c r="K5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R5" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="14">
+      <c r="C6" s="7"/>
+      <c r="D6" s="11">
         <v>1E-8</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H6" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
+      <c r="G6" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I6" s="9">
+        <v>10</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="11">
+        <v>1E-8</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R6" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="14">
+      <c r="C7" s="7"/>
+      <c r="D7" s="11">
         <v>0.1</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H7" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
+      <c r="G7" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I7" s="9">
+        <v>10</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R7" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="14">
+      <c r="C8" s="7"/>
+      <c r="D8" s="11">
         <v>10000</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H8" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
+      <c r="G8" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I8" s="9">
+        <v>10</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="11">
+        <v>10000</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R8" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="14">
+      <c r="C9" s="7"/>
+      <c r="D9" s="11">
         <v>10000</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H9" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
+      <c r="G9" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I9" s="9">
+        <v>10</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="11">
+        <v>10000</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R9" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="14">
+      <c r="C10" s="7"/>
+      <c r="D10" s="11">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
+      <c r="G10" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I10" s="9">
+        <v>10</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P10" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R10" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="14">
+      <c r="C11" s="7"/>
+      <c r="D11" s="11">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F12" s="11" t="s">
+      <c r="G11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H12" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="12">
+      <c r="G12" s="9">
         <v>0.1</v>
       </c>
-      <c r="H13" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F14" s="11" t="s">
+      <c r="H12" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I12" s="9">
+        <v>10</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R12" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="I13" s="9">
+        <v>10</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="R13" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="9">
+        <v>10</v>
+      </c>
+      <c r="H14" s="9">
         <v>0.1</v>
       </c>
-      <c r="H14" s="12">
+      <c r="I14" s="9">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F15" s="11" t="s">
+      <c r="O14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="R14" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="9">
+        <v>100</v>
+      </c>
+      <c r="H15" s="9">
         <v>0.1</v>
       </c>
-      <c r="H15" s="12">
+      <c r="I15" s="9">
         <v>1000</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F16" s="11" t="s">
+      <c r="O15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" s="9">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="R15" s="9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F17" s="11" t="s">
+      <c r="G16" s="9">
+        <v>1000</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="I16" s="9">
+        <v>10000</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P16" s="9">
+        <v>1000</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="R16" s="9">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="12" t="s">
+      <c r="G17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="21" x14ac:dyDescent="0.4">
+      <c r="B19" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="K19" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="9">
+        <v>2</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I21" s="9">
+        <v>80</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P21" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R21" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="11">
+        <v>1E-8</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I22" s="9">
+        <v>10</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="11">
+        <v>1E-8</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R22" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I23" s="9">
+        <v>10</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="P23" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R23" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="11">
+        <v>10000</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I24" s="9">
+        <v>10</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="11">
+        <v>10000</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R24" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="11">
+        <v>10000</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I25" s="9">
+        <v>10</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="11">
+        <v>10000</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P25" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R25" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I26" s="9">
+        <v>10</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" s="7"/>
+      <c r="M26" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P26" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R26" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="7"/>
+      <c r="M27" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I28" s="9">
+        <v>10</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="P28" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R28" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="9">
+        <v>1</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="I29" s="9">
+        <v>10</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="R29" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="9">
+        <v>10</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="I30" s="9">
+        <v>100</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P30" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="R30" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F31" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="9">
+        <v>100</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="I31" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O31" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P31" s="9">
+        <v>100</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="R31" s="9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="9">
+        <v>1000</v>
+      </c>
+      <c r="H32" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="I32" s="9">
+        <v>10000</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P32" s="9">
+        <v>1000</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="R32" s="9">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="33" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F33" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R33" s="9" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="K3:R3"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="K19:R19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4FB191-5DEE-4380-877B-59EA2D2A3CCE}">
-  <dimension ref="B4:H17"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFC6F16-129B-4549-B6D3-DC044F091BF8}">
+  <dimension ref="B3:R33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5920,679 +11295,1013 @@
     <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="1.44140625" customWidth="1"/>
     <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+    <row r="3" spans="2:18" ht="21" x14ac:dyDescent="0.4">
+      <c r="B3" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="K3" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
+      <c r="K4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H5" s="12">
+      <c r="G5" s="9">
+        <v>2</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I5" s="9">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
+      <c r="K5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R5" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="14">
+      <c r="C6" s="7"/>
+      <c r="D6" s="11">
         <v>1E-8</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H6" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
+      <c r="G6" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I6" s="9">
+        <v>10</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="11">
+        <v>1E-8</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R6" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="14">
+      <c r="C7" s="7"/>
+      <c r="D7" s="11">
         <v>0.1</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H7" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
+      <c r="G7" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I7" s="9">
+        <v>10</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R7" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="14">
+      <c r="C8" s="7"/>
+      <c r="D8" s="11">
         <v>10000</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H8" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
+      <c r="G8" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I8" s="9">
+        <v>10</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="11">
+        <v>10000</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R8" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="14">
+      <c r="C9" s="7"/>
+      <c r="D9" s="11">
         <v>10000</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H9" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
+      <c r="G9" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I9" s="9">
+        <v>10</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="11">
+        <v>10000</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R9" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="14">
+      <c r="C10" s="7"/>
+      <c r="D10" s="11">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
+      <c r="G10" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I10" s="9">
+        <v>10</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P10" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R10" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="14">
+      <c r="C11" s="7"/>
+      <c r="D11" s="11">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F12" s="11" t="s">
+      <c r="G11" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I11" s="9">
+        <v>10</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P11" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R11" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H12" s="12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F13" s="11" t="s">
+      <c r="G12" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I12" s="9">
+        <v>10</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R12" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F13" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="12">
         <v>0.1</v>
       </c>
-      <c r="H13" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F14" s="11" t="s">
+      <c r="H13" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I13" s="9">
+        <v>20</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R13" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9">
         <v>0.1</v>
       </c>
-      <c r="H14" s="12">
+      <c r="I14" s="9">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F15" s="11" t="s">
+      <c r="O14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="R14" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="9">
+        <v>10</v>
+      </c>
+      <c r="H15" s="9">
         <v>0.1</v>
       </c>
-      <c r="H15" s="12">
+      <c r="I15" s="9">
         <v>1000</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F16" s="11" t="s">
+      <c r="O15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="R15" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F17" s="11" t="s">
+      <c r="G16" s="9">
+        <v>100</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="I16" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P16" s="9">
+        <v>100</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="R16" s="9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>16</v>
+      <c r="G17" s="9">
+        <v>1000</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="I17" s="9">
+        <v>10000</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P17" s="9">
+        <v>1000</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="R17" s="9">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="21" x14ac:dyDescent="0.4">
+      <c r="B19" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="K19" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="9">
+        <v>2</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I21" s="9">
+        <v>80</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P21" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R21" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="11">
+        <v>1E-8</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I22" s="9">
+        <v>10</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="11">
+        <v>1E-8</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R22" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I23" s="9">
+        <v>10</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="P23" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R23" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="11">
+        <v>10000</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I24" s="9">
+        <v>10</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="11">
+        <v>10000</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R24" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="11">
+        <v>10000</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I25" s="9">
+        <v>10</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="11">
+        <v>10000</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P25" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R25" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I26" s="9">
+        <v>10</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" s="7"/>
+      <c r="M26" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P26" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R26" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I27" s="9">
+        <v>10</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="7"/>
+      <c r="M27" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P27" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R27" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I28" s="9">
+        <v>10</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="P28" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R28" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I29" s="9">
+        <v>20</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="R29" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="9">
+        <v>1</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="I30" s="9">
+        <v>100</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P30" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="R30" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F31" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="9">
+        <v>10</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="I31" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O31" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P31" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="R31" s="9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="9">
+        <v>100</v>
+      </c>
+      <c r="H32" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="I32" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P32" s="9">
+        <v>100</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="R32" s="9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F33" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="9">
+        <v>1000</v>
+      </c>
+      <c r="H33" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="I33" s="9">
+        <v>10000</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P33" s="9">
+        <v>1000</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="R33" s="9">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43AB85F6-4ACB-404D-BFE0-0D89FAEC340D}">
-  <dimension ref="B4:H17"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="1.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H5" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="14">
-        <v>1E-8</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H6" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H7" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="14">
-        <v>10000</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H8" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="14">
-        <v>10000</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H9" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="14">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H10" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="14">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H12" s="12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="H13" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F14" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="H14" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F15" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="H15" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="H16" s="12">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F17" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFC6F16-129B-4549-B6D3-DC044F091BF8}">
-  <dimension ref="B4:H17"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:H17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="1.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H5" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="14">
-        <v>1E-8</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H6" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H7" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="14">
-        <v>10000</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H8" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="14">
-        <v>10000</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H9" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="14">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H10" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="14">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H11" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H12" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="H13" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F14" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="H14" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F15" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="H15" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="H16" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F17" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="H17" s="12">
-        <v>10000</v>
-      </c>
-    </row>
-  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="K3:R3"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="K19:R19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Fit_07714532B-1_1h_atDifferentWindowing.xlsx
+++ b/Fit_07714532B-1_1h_atDifferentWindowing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Documents\Arduino\ArduinoModbusThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E94136-3F13-4CCD-9E7A-1D936BF672E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F53E3AE-7A39-46FC-B792-87E6F589A3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="687" firstSheet="1" activeTab="1" xr2:uid="{6C65C334-5E95-49B0-8D09-28CD8579ABD7}"/>
+    <workbookView xWindow="6413" yWindow="-16297" windowWidth="28994" windowHeight="16395" tabRatio="687" firstSheet="1" activeTab="1" xr2:uid="{6C65C334-5E95-49B0-8D09-28CD8579ABD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Fit result (2)" sheetId="7" r:id="rId1"/>
@@ -165,7 +165,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +210,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -291,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -361,6 +369,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -5718,10 +5727,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7549300-F135-4A90-B6B7-AFC0BE521B4F}">
-  <dimension ref="B2:S38"/>
+  <dimension ref="B2:AA44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA44" sqref="AA44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5732,6 +5741,7 @@
     <col min="9" max="9" width="4.33203125" customWidth="1"/>
     <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4.33203125" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.3">
@@ -6940,7 +6950,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B33" s="23"/>
       <c r="C33" s="14" t="s">
         <v>11</v>
@@ -6986,7 +6996,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B34" s="23"/>
       <c r="C34" s="14" t="s">
         <v>12</v>
@@ -7032,7 +7042,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B35" s="23"/>
       <c r="C35" s="14" t="s">
         <v>13</v>
@@ -7078,7 +7088,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B36" s="23"/>
       <c r="C36" s="14" t="s">
         <v>14</v>
@@ -7124,11 +7134,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B37" s="17"/>
       <c r="L37" s="17"/>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B38" s="15"/>
       <c r="C38" s="14" t="s">
         <v>17</v>
@@ -7167,6 +7177,9 @@
       <c r="R38" s="9">
         <v>0.99990000000000001</v>
       </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AA44" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/Fit_07714532B-1_1h_atDifferentWindowing.xlsx
+++ b/Fit_07714532B-1_1h_atDifferentWindowing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Documents\Arduino\ArduinoModbusThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F53E3AE-7A39-46FC-B792-87E6F589A3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CB37BD-31DC-47F2-AC76-C8839160FCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6413" yWindow="-16297" windowWidth="28994" windowHeight="16395" tabRatio="687" firstSheet="1" activeTab="1" xr2:uid="{6C65C334-5E95-49B0-8D09-28CD8579ABD7}"/>
+    <workbookView xWindow="-7095" yWindow="-16297" windowWidth="28995" windowHeight="16395" tabRatio="687" firstSheet="1" activeTab="1" xr2:uid="{6C65C334-5E95-49B0-8D09-28CD8579ABD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Fit result (2)" sheetId="7" r:id="rId1"/>
@@ -348,6 +348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -369,7 +370,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2430,6 +2430,7 @@
       <c:valAx>
         <c:axId val="199931472"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2493,6 +2494,8 @@
         <c:axId val="1148715088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="18"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4982,13 +4985,13 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>2856</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>172402</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5350,13 +5353,13 @@
     <row r="3" spans="2:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
@@ -5378,7 +5381,7 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -5404,7 +5407,7 @@
       </c>
     </row>
     <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B6" s="19"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
@@ -5428,7 +5431,7 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B7" s="19"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
@@ -5452,7 +5455,7 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B8" s="19"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
@@ -5476,7 +5479,7 @@
       </c>
     </row>
     <row r="9" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B9" s="19"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
@@ -5500,7 +5503,7 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B10" s="19"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
@@ -5524,7 +5527,7 @@
       </c>
     </row>
     <row r="11" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B11" s="19"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="5" t="s">
         <v>8</v>
       </c>
@@ -5548,7 +5551,7 @@
       </c>
     </row>
     <row r="12" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B12" s="19"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
@@ -5572,7 +5575,7 @@
       </c>
     </row>
     <row r="13" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B13" s="19"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="5" t="s">
         <v>10</v>
       </c>
@@ -5596,7 +5599,7 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B14" s="19"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="5" t="s">
         <v>11</v>
       </c>
@@ -5620,7 +5623,7 @@
       </c>
     </row>
     <row r="15" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B15" s="19"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="5" t="s">
         <v>12</v>
       </c>
@@ -5644,7 +5647,7 @@
       </c>
     </row>
     <row r="16" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B16" s="19"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="5" t="s">
         <v>13</v>
       </c>
@@ -5668,7 +5671,7 @@
       </c>
     </row>
     <row r="17" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B17" s="19"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="5" t="s">
         <v>14</v>
       </c>
@@ -5727,10 +5730,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7549300-F135-4A90-B6B7-AFC0BE521B4F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:AA44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA44" sqref="AA44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD19" sqref="AD18:AD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5748,51 +5754,51 @@
       <c r="B2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
     </row>
     <row r="4" spans="2:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="L4" s="21" t="s">
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="L4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="22" t="s">
+      <c r="M4" s="22"/>
+      <c r="N4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="14">
         <v>2</v>
       </c>
@@ -5808,8 +5814,8 @@
       <c r="H5" s="14">
         <v>60</v>
       </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
       <c r="N5" s="14">
         <v>2</v>
       </c>
@@ -5827,7 +5833,7 @@
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -5851,7 +5857,7 @@
       <c r="I6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="L6" s="24" t="s">
         <v>15</v>
       </c>
       <c r="M6" s="14" t="s">
@@ -5877,7 +5883,7 @@
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="23"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="14" t="s">
         <v>3</v>
       </c>
@@ -5899,7 +5905,7 @@
       <c r="I7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="23"/>
+      <c r="L7" s="24"/>
       <c r="M7" s="14" t="s">
         <v>3</v>
       </c>
@@ -5923,7 +5929,7 @@
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="23"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="14" t="s">
         <v>4</v>
       </c>
@@ -5945,7 +5951,7 @@
       <c r="I8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="23"/>
+      <c r="L8" s="24"/>
       <c r="M8" s="14" t="s">
         <v>4</v>
       </c>
@@ -5969,7 +5975,7 @@
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="23"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="14" t="s">
         <v>5</v>
       </c>
@@ -5991,7 +5997,7 @@
       <c r="I9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="23"/>
+      <c r="L9" s="24"/>
       <c r="M9" s="14" t="s">
         <v>5</v>
       </c>
@@ -6015,7 +6021,7 @@
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="23"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="14" t="s">
         <v>6</v>
       </c>
@@ -6037,7 +6043,7 @@
       <c r="I10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="23"/>
+      <c r="L10" s="24"/>
       <c r="M10" s="14" t="s">
         <v>6</v>
       </c>
@@ -6061,7 +6067,7 @@
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="23"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="14" t="s">
         <v>7</v>
       </c>
@@ -6083,7 +6089,7 @@
       <c r="I11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="23"/>
+      <c r="L11" s="24"/>
       <c r="M11" s="14" t="s">
         <v>7</v>
       </c>
@@ -6107,7 +6113,7 @@
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="23"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="14" t="s">
         <v>8</v>
       </c>
@@ -6129,7 +6135,7 @@
       <c r="I12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="23"/>
+      <c r="L12" s="24"/>
       <c r="M12" s="14" t="s">
         <v>8</v>
       </c>
@@ -6153,7 +6159,7 @@
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="23"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="14" t="s">
         <v>9</v>
       </c>
@@ -6175,7 +6181,7 @@
       <c r="I13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="23"/>
+      <c r="L13" s="24"/>
       <c r="M13" s="14" t="s">
         <v>9</v>
       </c>
@@ -6199,7 +6205,7 @@
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B14" s="23"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="14" t="s">
         <v>10</v>
       </c>
@@ -6221,7 +6227,7 @@
       <c r="I14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="23"/>
+      <c r="L14" s="24"/>
       <c r="M14" s="14" t="s">
         <v>10</v>
       </c>
@@ -6245,7 +6251,7 @@
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B15" s="23"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="14" t="s">
         <v>11</v>
       </c>
@@ -6267,7 +6273,7 @@
       <c r="I15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="23"/>
+      <c r="L15" s="24"/>
       <c r="M15" s="14" t="s">
         <v>11</v>
       </c>
@@ -6291,7 +6297,7 @@
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B16" s="23"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="14" t="s">
         <v>12</v>
       </c>
@@ -6313,7 +6319,7 @@
       <c r="I16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="23"/>
+      <c r="L16" s="24"/>
       <c r="M16" s="14" t="s">
         <v>12</v>
       </c>
@@ -6337,7 +6343,7 @@
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B17" s="23"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="14" t="s">
         <v>13</v>
       </c>
@@ -6359,7 +6365,7 @@
       <c r="I17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="23"/>
+      <c r="L17" s="24"/>
       <c r="M17" s="14" t="s">
         <v>13</v>
       </c>
@@ -6383,7 +6389,7 @@
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B18" s="23"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="14" t="s">
         <v>14</v>
       </c>
@@ -6405,7 +6411,7 @@
       <c r="I18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="23"/>
+      <c r="L18" s="24"/>
       <c r="M18" s="14" t="s">
         <v>14</v>
       </c>
@@ -6473,32 +6479,32 @@
       </c>
     </row>
     <row r="22" spans="2:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22" t="s">
+      <c r="C22" s="22"/>
+      <c r="D22" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="L22" s="21" t="s">
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="L22" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="M22" s="21"/>
-      <c r="N22" s="22" t="s">
+      <c r="M22" s="22"/>
+      <c r="N22" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="14">
         <v>2</v>
       </c>
@@ -6514,8 +6520,8 @@
       <c r="H23" s="14">
         <v>60</v>
       </c>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
       <c r="N23" s="14">
         <v>2</v>
       </c>
@@ -6533,7 +6539,7 @@
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="24" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="14" t="s">
@@ -6557,7 +6563,7 @@
       <c r="I24" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="23" t="s">
+      <c r="L24" s="24" t="s">
         <v>15</v>
       </c>
       <c r="M24" s="14" t="s">
@@ -6583,7 +6589,7 @@
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B25" s="23"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="14" t="s">
         <v>3</v>
       </c>
@@ -6605,7 +6611,7 @@
       <c r="I25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="23"/>
+      <c r="L25" s="24"/>
       <c r="M25" s="14" t="s">
         <v>3</v>
       </c>
@@ -6629,7 +6635,7 @@
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B26" s="23"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="14" t="s">
         <v>4</v>
       </c>
@@ -6651,7 +6657,7 @@
       <c r="I26" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="23"/>
+      <c r="L26" s="24"/>
       <c r="M26" s="14" t="s">
         <v>4</v>
       </c>
@@ -6675,7 +6681,7 @@
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B27" s="23"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="14" t="s">
         <v>5</v>
       </c>
@@ -6697,7 +6703,7 @@
       <c r="I27" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="23"/>
+      <c r="L27" s="24"/>
       <c r="M27" s="14" t="s">
         <v>5</v>
       </c>
@@ -6721,7 +6727,7 @@
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B28" s="23"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="14" t="s">
         <v>6</v>
       </c>
@@ -6743,7 +6749,7 @@
       <c r="I28" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="23"/>
+      <c r="L28" s="24"/>
       <c r="M28" s="14" t="s">
         <v>6</v>
       </c>
@@ -6767,7 +6773,7 @@
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B29" s="23"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="14" t="s">
         <v>7</v>
       </c>
@@ -6789,7 +6795,7 @@
       <c r="I29" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="23"/>
+      <c r="L29" s="24"/>
       <c r="M29" s="14" t="s">
         <v>7</v>
       </c>
@@ -6813,7 +6819,7 @@
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B30" s="23"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="14" t="s">
         <v>8</v>
       </c>
@@ -6835,7 +6841,7 @@
       <c r="I30" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L30" s="23"/>
+      <c r="L30" s="24"/>
       <c r="M30" s="14" t="s">
         <v>8</v>
       </c>
@@ -6859,7 +6865,7 @@
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B31" s="23"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="14" t="s">
         <v>9</v>
       </c>
@@ -6881,7 +6887,7 @@
       <c r="I31" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L31" s="23"/>
+      <c r="L31" s="24"/>
       <c r="M31" s="14" t="s">
         <v>9</v>
       </c>
@@ -6905,7 +6911,7 @@
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B32" s="23"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="14" t="s">
         <v>10</v>
       </c>
@@ -6927,7 +6933,7 @@
       <c r="I32" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L32" s="23"/>
+      <c r="L32" s="24"/>
       <c r="M32" s="14" t="s">
         <v>10</v>
       </c>
@@ -6951,7 +6957,7 @@
       </c>
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B33" s="23"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="14" t="s">
         <v>11</v>
       </c>
@@ -6973,7 +6979,7 @@
       <c r="I33" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L33" s="23"/>
+      <c r="L33" s="24"/>
       <c r="M33" s="14" t="s">
         <v>11</v>
       </c>
@@ -6997,7 +7003,7 @@
       </c>
     </row>
     <row r="34" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B34" s="23"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="14" t="s">
         <v>12</v>
       </c>
@@ -7019,7 +7025,7 @@
       <c r="I34" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L34" s="23"/>
+      <c r="L34" s="24"/>
       <c r="M34" s="14" t="s">
         <v>12</v>
       </c>
@@ -7043,7 +7049,7 @@
       </c>
     </row>
     <row r="35" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B35" s="23"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="14" t="s">
         <v>13</v>
       </c>
@@ -7065,7 +7071,7 @@
       <c r="I35" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L35" s="23"/>
+      <c r="L35" s="24"/>
       <c r="M35" s="14" t="s">
         <v>13</v>
       </c>
@@ -7089,7 +7095,7 @@
       </c>
     </row>
     <row r="36" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B36" s="23"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="14" t="s">
         <v>14</v>
       </c>
@@ -7111,7 +7117,7 @@
       <c r="I36" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L36" s="23"/>
+      <c r="L36" s="24"/>
       <c r="M36" s="14" t="s">
         <v>14</v>
       </c>
@@ -7179,7 +7185,7 @@
       </c>
     </row>
     <row r="44" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="AA44" s="25"/>
+      <c r="AA44" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -7198,8 +7204,9 @@
     <mergeCell ref="L6:L18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7219,26 +7226,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:18" ht="21" x14ac:dyDescent="0.4">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="K3" s="24" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="K3" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
@@ -7717,26 +7724,26 @@
       </c>
     </row>
     <row r="19" spans="2:18" ht="21" x14ac:dyDescent="0.4">
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="K19" s="24" t="s">
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="K19" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
@@ -8241,26 +8248,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:18" ht="21" x14ac:dyDescent="0.4">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="K3" s="24" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="K3" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
@@ -8739,26 +8746,26 @@
       </c>
     </row>
     <row r="19" spans="2:18" ht="21" x14ac:dyDescent="0.4">
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="K19" s="24" t="s">
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="K19" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
@@ -9265,26 +9272,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:18" ht="21" x14ac:dyDescent="0.4">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="K3" s="24" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="K3" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
@@ -9763,26 +9770,26 @@
       </c>
     </row>
     <row r="19" spans="2:18" ht="21" x14ac:dyDescent="0.4">
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="K19" s="24" t="s">
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="K19" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
@@ -10289,26 +10296,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:18" ht="21" x14ac:dyDescent="0.4">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="K3" s="24" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="K3" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
@@ -10787,26 +10794,26 @@
       </c>
     </row>
     <row r="19" spans="2:18" ht="21" x14ac:dyDescent="0.4">
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="K19" s="24" t="s">
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="K19" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
@@ -11313,26 +11320,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:18" ht="21" x14ac:dyDescent="0.4">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="K3" s="24" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="K3" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
@@ -11811,26 +11818,26 @@
       </c>
     </row>
     <row r="19" spans="2:18" ht="21" x14ac:dyDescent="0.4">
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="K19" s="24" t="s">
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="K19" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">

--- a/Fit_07714532B-1_1h_atDifferentWindowing.xlsx
+++ b/Fit_07714532B-1_1h_atDifferentWindowing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Documents\Arduino\ArduinoModbusThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CB37BD-31DC-47F2-AC76-C8839160FCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6886AB5-564B-4455-A457-3B20D7F6425F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7095" yWindow="-16297" windowWidth="28995" windowHeight="16395" tabRatio="687" firstSheet="1" activeTab="1" xr2:uid="{6C65C334-5E95-49B0-8D09-28CD8579ABD7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="687" xr2:uid="{6C65C334-5E95-49B0-8D09-28CD8579ABD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Fit result (2)" sheetId="7" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Fit options 10m" sheetId="4" r:id="rId5"/>
     <sheet name="Fit options 30m" sheetId="5" r:id="rId6"/>
     <sheet name="Fit options 60m" sheetId="6" r:id="rId7"/>
+    <sheet name="Fit options 120m" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="39">
   <si>
     <t>coeff</t>
   </si>
@@ -165,6 +166,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0E+00"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -261,7 +265,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -295,11 +299,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -349,6 +362,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -369,6 +385,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,7 +536,7 @@
             <c:numRef>
               <c:f>'Fit result (2)'!$D$5:$H$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0E+00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>15.99</c:v>
@@ -638,7 +657,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -864,7 +883,7 @@
             <c:numRef>
               <c:f>'Fit result (2)'!$D$6:$H$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0E+00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.16220000000000001</c:v>
@@ -949,7 +968,7 @@
             <c:numRef>
               <c:f>'Fit result (2)'!$D$7:$H$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0E+00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.45319999999999999</c:v>
@@ -1034,7 +1053,7 @@
             <c:numRef>
               <c:f>'Fit result (2)'!$D$8:$H$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0E+00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.51380000000000003</c:v>
@@ -1119,7 +1138,7 @@
             <c:numRef>
               <c:f>'Fit result (2)'!$D$9:$H$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0E+00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.91159999999999997</c:v>
@@ -1240,7 +1259,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5338,8 +5357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913BE0E8-6418-4656-AD5E-E45EA35F3D6C}">
   <dimension ref="B3:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -5353,13 +5372,13 @@
     <row r="3" spans="2:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
@@ -5381,25 +5400,25 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="27">
         <v>15.99</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="27">
         <v>15.63</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="27">
         <v>15.32</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="27">
         <v>14.86</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="27">
         <v>13.64</v>
       </c>
       <c r="I5" s="6" t="s">
@@ -5407,23 +5426,23 @@
       </c>
     </row>
     <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B6" s="20"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="27">
         <v>0.16220000000000001</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="27">
         <v>0.54</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="27">
         <v>0.55030000000000001</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="27">
         <v>0.47870000000000001</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="27">
         <v>0.41589999999999999</v>
       </c>
       <c r="I6" s="6" t="s">
@@ -5431,23 +5450,23 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B7" s="20"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="27">
         <v>0.45319999999999999</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="27">
         <v>0.37319999999999998</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="27">
         <v>0.50890000000000002</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="27">
         <v>0.56620000000000004</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="27">
         <v>0.5494</v>
       </c>
       <c r="I7" s="6" t="s">
@@ -5455,23 +5474,23 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B8" s="20"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="27">
         <v>0.51380000000000003</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="27">
         <v>0.53859999999999997</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="27">
         <v>0.56159999999999999</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="27">
         <v>0.51419999999999999</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="27">
         <v>0.49209999999999998</v>
       </c>
       <c r="I8" s="6" t="s">
@@ -5479,23 +5498,23 @@
       </c>
     </row>
     <row r="9" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B9" s="20"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="27">
         <v>0.91159999999999997</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="27">
         <v>0.95030000000000003</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="27">
         <v>1.0069999999999999</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="27">
         <v>0.48459999999999998</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="27">
         <v>0.46639999999999998</v>
       </c>
       <c r="I9" s="6" t="s">
@@ -5503,23 +5522,23 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B10" s="20"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="D10" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="27">
         <v>1.113</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="27">
         <v>0.69910000000000005</v>
       </c>
       <c r="I10" s="6" t="s">
@@ -5527,23 +5546,23 @@
       </c>
     </row>
     <row r="11" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B11" s="20"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="6">
+      <c r="D11" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="27">
         <v>1.7609999999999999</v>
       </c>
       <c r="I11" s="6" t="s">
@@ -5551,23 +5570,23 @@
       </c>
     </row>
     <row r="12" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B12" s="20"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="27">
         <v>0.29339999999999999</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="27">
         <v>4.8739999999999997</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="27">
         <v>6.6420000000000003</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="27">
         <v>1.0629999999999999</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="27">
         <v>0.86460000000000004</v>
       </c>
       <c r="I12" s="6" t="s">
@@ -5575,23 +5594,23 @@
       </c>
     </row>
     <row r="13" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B13" s="20"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="27">
         <v>1.958</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="27">
         <v>0.74739999999999995</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="27">
         <v>1.18</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="27">
         <v>7.5380000000000003</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="27">
         <v>5.8029999999999999</v>
       </c>
       <c r="I13" s="6" t="s">
@@ -5599,23 +5618,23 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B14" s="20"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="27">
         <v>9.782</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="27">
         <v>27.03</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="27">
         <v>51.7</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="27">
         <v>42.19</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="27">
         <v>31.07</v>
       </c>
       <c r="I14" s="6" t="s">
@@ -5623,23 +5642,23 @@
       </c>
     </row>
     <row r="15" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B15" s="20"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="27">
         <v>74.83</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="27">
         <v>209.4</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="27">
         <v>432.4</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="27">
         <v>189.9</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="27">
         <v>132.30000000000001</v>
       </c>
       <c r="I15" s="6" t="s">
@@ -5647,23 +5666,23 @@
       </c>
     </row>
     <row r="16" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B16" s="20"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="6">
+      <c r="D16" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="27">
         <v>1358</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="27">
         <v>701</v>
       </c>
       <c r="I16" s="6" t="s">
@@ -5671,23 +5690,23 @@
       </c>
     </row>
     <row r="17" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B17" s="20"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="6">
+      <c r="D17" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="27">
         <v>9549</v>
       </c>
       <c r="I17" s="6" t="s">
@@ -5724,7 +5743,8 @@
     <mergeCell ref="B5:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5735,8 +5755,8 @@
   </sheetPr>
   <dimension ref="B2:AA44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD19" sqref="AD18:AD19"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5754,51 +5774,51 @@
       <c r="B2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
     </row>
     <row r="4" spans="2:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="L4" s="22" t="s">
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="L4" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="23" t="s">
+      <c r="M4" s="23"/>
+      <c r="N4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="14">
         <v>2</v>
       </c>
@@ -5814,8 +5834,11 @@
       <c r="H5" s="14">
         <v>60</v>
       </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
+      <c r="J5" s="19">
+        <v>120</v>
+      </c>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
       <c r="N5" s="14">
         <v>2</v>
       </c>
@@ -5833,7 +5856,7 @@
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -5857,7 +5880,10 @@
       <c r="I6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="J6" s="12">
+        <v>14.2</v>
+      </c>
+      <c r="L6" s="25" t="s">
         <v>15</v>
       </c>
       <c r="M6" s="14" t="s">
@@ -5883,7 +5909,7 @@
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="24"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="14" t="s">
         <v>3</v>
       </c>
@@ -5905,7 +5931,10 @@
       <c r="I7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="24"/>
+      <c r="J7" s="12">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L7" s="25"/>
       <c r="M7" s="14" t="s">
         <v>3</v>
       </c>
@@ -5929,7 +5958,7 @@
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="24"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="14" t="s">
         <v>4</v>
       </c>
@@ -5951,7 +5980,10 @@
       <c r="I8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="24"/>
+      <c r="J8" s="12">
+        <v>0.45240000000000002</v>
+      </c>
+      <c r="L8" s="25"/>
       <c r="M8" s="14" t="s">
         <v>4</v>
       </c>
@@ -5975,7 +6007,7 @@
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="24"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="14" t="s">
         <v>5</v>
       </c>
@@ -5997,7 +6029,10 @@
       <c r="I9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="24"/>
+      <c r="J9" s="15">
+        <v>0.52610000000000001</v>
+      </c>
+      <c r="L9" s="25"/>
       <c r="M9" s="14" t="s">
         <v>5</v>
       </c>
@@ -6021,7 +6056,7 @@
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="24"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="14" t="s">
         <v>6</v>
       </c>
@@ -6043,7 +6078,10 @@
       <c r="I10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="24"/>
+      <c r="J10" s="15">
+        <v>0.40889999999999999</v>
+      </c>
+      <c r="L10" s="25"/>
       <c r="M10" s="14" t="s">
         <v>6</v>
       </c>
@@ -6067,7 +6105,7 @@
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="24"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="14" t="s">
         <v>7</v>
       </c>
@@ -6089,7 +6127,10 @@
       <c r="I11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="24"/>
+      <c r="J11" s="15">
+        <v>0.4703</v>
+      </c>
+      <c r="L11" s="25"/>
       <c r="M11" s="14" t="s">
         <v>7</v>
       </c>
@@ -6113,7 +6154,7 @@
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="24"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="14" t="s">
         <v>8</v>
       </c>
@@ -6135,7 +6176,10 @@
       <c r="I12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="24"/>
+      <c r="J12" s="15">
+        <v>1.1619999999999999</v>
+      </c>
+      <c r="L12" s="25"/>
       <c r="M12" s="14" t="s">
         <v>8</v>
       </c>
@@ -6159,7 +6203,7 @@
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="24"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="14" t="s">
         <v>9</v>
       </c>
@@ -6181,7 +6225,10 @@
       <c r="I13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="24"/>
+      <c r="J13" s="15">
+        <v>0.7873</v>
+      </c>
+      <c r="L13" s="25"/>
       <c r="M13" s="14" t="s">
         <v>9</v>
       </c>
@@ -6205,7 +6252,7 @@
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B14" s="24"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="14" t="s">
         <v>10</v>
       </c>
@@ -6227,7 +6274,10 @@
       <c r="I14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="24"/>
+      <c r="J14" s="15">
+        <v>28.58</v>
+      </c>
+      <c r="L14" s="25"/>
       <c r="M14" s="14" t="s">
         <v>10</v>
       </c>
@@ -6251,7 +6301,7 @@
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B15" s="24"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="14" t="s">
         <v>11</v>
       </c>
@@ -6273,7 +6323,10 @@
       <c r="I15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="24"/>
+      <c r="J15" s="15">
+        <v>5.1210000000000004</v>
+      </c>
+      <c r="L15" s="25"/>
       <c r="M15" s="14" t="s">
         <v>11</v>
       </c>
@@ -6297,7 +6350,7 @@
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B16" s="24"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="14" t="s">
         <v>12</v>
       </c>
@@ -6319,7 +6372,10 @@
       <c r="I16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="24"/>
+      <c r="J16" s="15">
+        <v>130.69999999999999</v>
+      </c>
+      <c r="L16" s="25"/>
       <c r="M16" s="14" t="s">
         <v>12</v>
       </c>
@@ -6343,7 +6399,7 @@
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B17" s="24"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="14" t="s">
         <v>13</v>
       </c>
@@ -6365,7 +6421,10 @@
       <c r="I17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="24"/>
+      <c r="J17" s="15">
+        <v>597.79999999999995</v>
+      </c>
+      <c r="L17" s="25"/>
       <c r="M17" s="14" t="s">
         <v>13</v>
       </c>
@@ -6389,7 +6448,7 @@
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B18" s="24"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="14" t="s">
         <v>14</v>
       </c>
@@ -6411,7 +6470,10 @@
       <c r="I18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="24"/>
+      <c r="J18" s="15">
+        <v>5387</v>
+      </c>
+      <c r="L18" s="25"/>
       <c r="M18" s="14" t="s">
         <v>14</v>
       </c>
@@ -6479,32 +6541,32 @@
       </c>
     </row>
     <row r="22" spans="2:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23" t="s">
+      <c r="C22" s="23"/>
+      <c r="D22" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="L22" s="22" t="s">
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="L22" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M22" s="22"/>
-      <c r="N22" s="23" t="s">
+      <c r="M22" s="23"/>
+      <c r="N22" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="14">
         <v>2</v>
       </c>
@@ -6520,8 +6582,8 @@
       <c r="H23" s="14">
         <v>60</v>
       </c>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
       <c r="N23" s="14">
         <v>2</v>
       </c>
@@ -6539,7 +6601,7 @@
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="14" t="s">
@@ -6563,7 +6625,7 @@
       <c r="I24" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="24" t="s">
+      <c r="L24" s="25" t="s">
         <v>15</v>
       </c>
       <c r="M24" s="14" t="s">
@@ -6589,7 +6651,7 @@
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B25" s="24"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="14" t="s">
         <v>3</v>
       </c>
@@ -6611,7 +6673,7 @@
       <c r="I25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="24"/>
+      <c r="L25" s="25"/>
       <c r="M25" s="14" t="s">
         <v>3</v>
       </c>
@@ -6635,7 +6697,7 @@
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B26" s="24"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="14" t="s">
         <v>4</v>
       </c>
@@ -6657,7 +6719,7 @@
       <c r="I26" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="24"/>
+      <c r="L26" s="25"/>
       <c r="M26" s="14" t="s">
         <v>4</v>
       </c>
@@ -6681,7 +6743,7 @@
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B27" s="24"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="14" t="s">
         <v>5</v>
       </c>
@@ -6703,7 +6765,7 @@
       <c r="I27" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="24"/>
+      <c r="L27" s="25"/>
       <c r="M27" s="14" t="s">
         <v>5</v>
       </c>
@@ -6727,7 +6789,7 @@
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B28" s="24"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="14" t="s">
         <v>6</v>
       </c>
@@ -6749,7 +6811,7 @@
       <c r="I28" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="24"/>
+      <c r="L28" s="25"/>
       <c r="M28" s="14" t="s">
         <v>6</v>
       </c>
@@ -6773,7 +6835,7 @@
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B29" s="24"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="14" t="s">
         <v>7</v>
       </c>
@@ -6795,7 +6857,7 @@
       <c r="I29" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="24"/>
+      <c r="L29" s="25"/>
       <c r="M29" s="14" t="s">
         <v>7</v>
       </c>
@@ -6819,7 +6881,7 @@
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B30" s="24"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="14" t="s">
         <v>8</v>
       </c>
@@ -6841,7 +6903,7 @@
       <c r="I30" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L30" s="24"/>
+      <c r="L30" s="25"/>
       <c r="M30" s="14" t="s">
         <v>8</v>
       </c>
@@ -6865,7 +6927,7 @@
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B31" s="24"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="14" t="s">
         <v>9</v>
       </c>
@@ -6887,7 +6949,7 @@
       <c r="I31" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L31" s="24"/>
+      <c r="L31" s="25"/>
       <c r="M31" s="14" t="s">
         <v>9</v>
       </c>
@@ -6911,7 +6973,7 @@
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B32" s="24"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="14" t="s">
         <v>10</v>
       </c>
@@ -6933,7 +6995,7 @@
       <c r="I32" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L32" s="24"/>
+      <c r="L32" s="25"/>
       <c r="M32" s="14" t="s">
         <v>10</v>
       </c>
@@ -6957,7 +7019,7 @@
       </c>
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B33" s="24"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="14" t="s">
         <v>11</v>
       </c>
@@ -6979,7 +7041,7 @@
       <c r="I33" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L33" s="24"/>
+      <c r="L33" s="25"/>
       <c r="M33" s="14" t="s">
         <v>11</v>
       </c>
@@ -7003,7 +7065,7 @@
       </c>
     </row>
     <row r="34" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B34" s="24"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="14" t="s">
         <v>12</v>
       </c>
@@ -7025,7 +7087,7 @@
       <c r="I34" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L34" s="24"/>
+      <c r="L34" s="25"/>
       <c r="M34" s="14" t="s">
         <v>12</v>
       </c>
@@ -7049,7 +7111,7 @@
       </c>
     </row>
     <row r="35" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B35" s="24"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="14" t="s">
         <v>13</v>
       </c>
@@ -7071,7 +7133,7 @@
       <c r="I35" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L35" s="24"/>
+      <c r="L35" s="25"/>
       <c r="M35" s="14" t="s">
         <v>13</v>
       </c>
@@ -7095,7 +7157,7 @@
       </c>
     </row>
     <row r="36" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B36" s="24"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="14" t="s">
         <v>14</v>
       </c>
@@ -7117,7 +7179,7 @@
       <c r="I36" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L36" s="24"/>
+      <c r="L36" s="25"/>
       <c r="M36" s="14" t="s">
         <v>14</v>
       </c>
@@ -7226,26 +7288,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:18" ht="21" x14ac:dyDescent="0.4">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="K3" s="25" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="K3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
@@ -7724,26 +7786,26 @@
       </c>
     </row>
     <row r="19" spans="2:18" ht="21" x14ac:dyDescent="0.4">
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="K19" s="25" t="s">
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="K19" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
@@ -8248,26 +8310,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:18" ht="21" x14ac:dyDescent="0.4">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="K3" s="25" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="K3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
@@ -8746,26 +8808,26 @@
       </c>
     </row>
     <row r="19" spans="2:18" ht="21" x14ac:dyDescent="0.4">
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="K19" s="25" t="s">
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="K19" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
@@ -9272,26 +9334,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:18" ht="21" x14ac:dyDescent="0.4">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="K3" s="25" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="K3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
@@ -9770,26 +9832,26 @@
       </c>
     </row>
     <row r="19" spans="2:18" ht="21" x14ac:dyDescent="0.4">
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="K19" s="25" t="s">
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="K19" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
@@ -10296,26 +10358,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:18" ht="21" x14ac:dyDescent="0.4">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="K3" s="25" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="K3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
@@ -10794,26 +10856,26 @@
       </c>
     </row>
     <row r="19" spans="2:18" ht="21" x14ac:dyDescent="0.4">
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="K19" s="25" t="s">
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="K19" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
@@ -11320,26 +11382,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:18" ht="21" x14ac:dyDescent="0.4">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="K3" s="25" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="K3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
@@ -11818,26 +11880,26 @@
       </c>
     </row>
     <row r="19" spans="2:18" ht="21" x14ac:dyDescent="0.4">
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="K19" s="25" t="s">
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="K19" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
@@ -12324,4 +12386,794 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6864B8E9-B26E-4B10-9BC1-19FAFF5199E4}">
+  <dimension ref="B3:R33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:18" ht="21" x14ac:dyDescent="0.4">
+      <c r="B3" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="K3" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="9">
+        <v>10</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I5" s="9">
+        <v>80</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="11">
+        <v>1E-8</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I6" s="9">
+        <v>10</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="11">
+        <v>1E-8</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I7" s="9">
+        <v>10</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="11">
+        <v>100000</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I8" s="9">
+        <v>10</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="11">
+        <v>10000</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="11">
+        <v>100000</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I9" s="9">
+        <v>10</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="11">
+        <v>10000</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I10" s="9">
+        <v>10</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I11" s="9">
+        <v>10</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I12" s="9">
+        <v>5</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="12">
+        <v>1</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I13" s="9">
+        <v>50</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="I14" s="9">
+        <v>100</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H15" s="9">
+        <v>1</v>
+      </c>
+      <c r="I15" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H16" s="9">
+        <v>10</v>
+      </c>
+      <c r="I16" s="9">
+        <v>10000</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H17" s="9">
+        <v>100</v>
+      </c>
+      <c r="I17" s="9">
+        <v>10000</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+    </row>
+    <row r="19" spans="2:18" ht="21" x14ac:dyDescent="0.4">
+      <c r="B19" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="K19" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="K21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="11">
+        <v>1E-8</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="K22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="11">
+        <v>1E-8</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="K23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="11">
+        <v>10000</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="K24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="11">
+        <v>10000</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="11">
+        <v>10000</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="K25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="11">
+        <v>10000</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="K26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" s="7"/>
+      <c r="M26" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="K27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="7"/>
+      <c r="M27" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="O28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="12"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="O29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="O30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F31" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="O31" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="O32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+    </row>
+    <row r="33" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F33" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="O33" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="K3:R3"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="K19:R19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>